--- a/后端/事务相关.xlsx
+++ b/后端/事务相关.xlsx
@@ -41,9 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一类丢失更新：撤销一个事务时，把其他事务已提交的更新数据覆盖。　</t>
-  </si>
-  <si>
     <t>加100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,14 +50,6 @@
   </si>
   <si>
     <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回滚丢失更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交丢失更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +117,18 @@
   </si>
   <si>
     <t>锁等级：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一类丢失更新：撤销一个事务时，把其他事务已提交的更新数据覆盖。　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回滚丢失更新(一类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交丢失更新(二类)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,20 +520,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -541,13 +542,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
@@ -558,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>0</v>
@@ -598,7 +599,7 @@
     </row>
     <row r="6" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -609,7 +610,7 @@
     <row r="7" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -617,7 +618,7 @@
         <v>-100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -634,16 +635,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -657,65 +658,65 @@
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
